--- a/my doc/Car/Fiesta.xlsx
+++ b/my doc/Car/Fiesta.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skyforce\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9114"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4092"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144315"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +106,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,39 +132,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="44546A" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="E7E6E6" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="5B9BD5" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="ED7D31" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="A5A5A5" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFC000" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4472C4" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="70AD47" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0563C1" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="954F72" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +325,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -381,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -392,12 +387,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>6</v>
       </c>
@@ -408,18 +406,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>7000</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>5514</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -439,7 +437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -459,14 +457,14 @@
       </c>
       <c r="F4">
         <f>F$2/($D4)*$B$13/1000*60</f>
-        <v>7.4302514867803522</v>
+        <v>40.970406698106864</v>
       </c>
       <c r="G4">
         <f>G$2*$D4/$B$13*1000/60</f>
         <v>13458.494665748063</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -486,14 +484,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>11.982007029114301</v>
+        <v>66.068786758536248</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G9" si="2">G$2*$D5/$B$13*1000/60</f>
         <v>8345.8472154970768</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -513,14 +511,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>18.13516201360412</v>
+        <v>99.997283343013123</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
         <v>5514.1498005358235</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -540,14 +538,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>25.506457053413833</v>
+        <v>140.64260419252386</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
         <v>3920.5758679297173</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -567,14 +565,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>33.568967789756222</v>
+        <v>185.09928839271578</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
         <v>2978.9417603276929</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -594,14 +592,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>41.459109791622005</v>
+        <v>228.60553139100369</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
         <v>2412.015127739377</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -615,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>

--- a/my doc/Car/Fiesta.xlsx
+++ b/my doc/Car/Fiesta.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Gear</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>轉速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -438,187 +442,214 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>3.9169999999999998</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="C4">
-        <v>3.895</v>
+        <v>4.3529999999999998</v>
       </c>
       <c r="D4">
         <f>B4*C4</f>
-        <v>15.256715</v>
+        <v>15.265971</v>
       </c>
       <c r="E4">
-        <f>E$2/($D4)*$B$13/1000*60</f>
-        <v>52.011760407462461</v>
+        <f>E$2/($D4)*$B$14/1000*60</f>
+        <v>51.980224853364298</v>
       </c>
       <c r="F4">
-        <f>F$2/($D4)*$B$13/1000*60</f>
-        <v>40.970406698106864</v>
+        <f>F$2/($D4)*$B$14/1000*60</f>
+        <v>40.945565691635821</v>
       </c>
       <c r="G4">
-        <f>G$2*$D4/$B$13*1000/60</f>
-        <v>13458.494665748063</v>
+        <f>G$2*$D4/$B$14*1000/60</f>
+        <v>13466.659714818337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2.4289999999999998</v>
+        <v>3.9169999999999998</v>
       </c>
       <c r="C5">
         <v>3.895</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D9" si="0">B5*C5</f>
-        <v>9.4609550000000002</v>
+        <f>B5*C5</f>
+        <v>15.256715</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:F9" si="1">E$2/($D5)*$B$13/1000*60</f>
-        <v>83.874049203800112</v>
+        <f>E$2/($D5)*$B$14/1000*60</f>
+        <v>52.011760407462461</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>66.068786758536248</v>
+        <f>F$2/($D5)*$B$14/1000*60</f>
+        <v>40.970406698106864</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G9" si="2">G$2*$D5/$B$13*1000/60</f>
-        <v>8345.8472154970768</v>
+        <f>G$2*$D5/$B$14*1000/60</f>
+        <v>13458.494665748063</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="C6">
+        <v>3.895</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="0">B6*C6</f>
+        <v>9.4609550000000002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:F10" si="1">E$2/($D6)*$B$14/1000*60</f>
+        <v>83.874049203800112</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>66.068786758536248</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G10" si="2">G$2*$D6/$B$14*1000/60</f>
+        <v>8345.8472154970768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1.4359999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>4.3529999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>6.250907999999999</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>126.94613409522884</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>99.997283343013123</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>5514.1498005358235</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1.0209999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4.3529999999999998</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>4.4444129999999991</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>178.54519937389682</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>140.64260419252386</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>3920.5758679297173</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.86699999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3.895</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>3.3769649999999998</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>234.98277452829353</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>185.09928839271578</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>2978.9417603276929</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.70199999999999996</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>3.895</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>2.7342899999999997</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>290.213768541354</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>228.60553139100369</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>2412.015127739377</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>195</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <f>(B12*C12/100*2+25.4*D12) * PI()/1000</f>
+      <c r="B14">
+        <f>(B13*C13/100*2+25.4*D13) * PI()/1000</f>
         <v>1.8893538218689017</v>
       </c>
     </row>
